--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">nombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apellidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claves</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">Scot Labadie</t>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">Enrique Kassulke</t>
@@ -265,6 +262,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -353,10 +351,10 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -388,497 +386,497 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D35" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated</t>
+    <t xml:space="preserve">Actualizado</t>
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
@@ -184,13 +184,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -217,10 +213,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -245,7 +241,7 @@
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -287,7 +283,7 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -301,7 +297,7 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -315,7 +311,7 @@
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -357,7 +353,7 @@
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -424,16 +420,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">acronym</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
@@ -43,16 +46,25 @@
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
+    <t xml:space="preserve">area_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enrique Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
+    <t xml:space="preserve">area_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Madonna Hirthe</t>
   </si>
   <si>
     <t xml:space="preserve">berta77@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_c</t>
   </si>
   <si>
     <t xml:space="preserve">Yesenia Gerlach IV</t>
@@ -184,9 +196,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -210,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E16:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -236,202 +252,259 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -229,10 +229,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E16:E20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>23</v>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -229,10 +229,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lyric Leannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dessie53@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">Agatha</t>
@@ -196,16 +193,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,289 +223,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -37,88 +37,82 @@
     <t xml:space="preserve">acronym</t>
   </si>
   <si>
-    <t xml:space="preserve">Scot Labadie</t>
+    <t xml:space="preserve">Marielle Predovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roy.krajcik@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vada Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herman40@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascale Maggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isabel73@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Santiago Bartoletti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reed.okeefe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jannie Crooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bartoletti.ana@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filiberto Christiansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleannon@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Jovany Daugherty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobi.rodrigo@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Wilford Rempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amedhurst@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randi.breitenberg@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Federico Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yluettgen@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">Actualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nienow.jane@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique Kassulke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madonna Hirthe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berta77@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yesenia Gerlach IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejuan.ferry@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garfield Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">london36@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Sipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazie24@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melyssa Zieme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaden.kenny@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geovany Ratke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiara.sanford@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeramie Rowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eudora45@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flossie Franecki IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guadalupe.ryan@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyleigh Heathcote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sterling02@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyric Leannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agatha</t>
   </si>
 </sst>
 </file>
@@ -128,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,6 +143,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,13 +228,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
@@ -262,123 +263,123 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -390,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,111 +399,68 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="2"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-encabezados-3.xlsx
+++ b/public/DataUpload/users-encabezados-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -79,40 +79,37 @@
     <t xml:space="preserve">Filiberto Christiansen</t>
   </si>
   <si>
+    <t xml:space="preserve">Actualizado</t>
+  </si>
+  <si>
     <t xml:space="preserve">pleannon@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Jovany Daugherty</t>
+    <t xml:space="preserve">Dr. Wilford Rempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amedhurst@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randi.breitenberg@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Federico Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yluettgen@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">jacobi.rodrigo@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Wilford Rempel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rempel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amedhurst@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Damaris Luettgen MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damaris Luettgen MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randi.breitenberg@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Federico Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yluettgen@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizado</t>
   </si>
 </sst>
 </file>
@@ -228,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,10 +345,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -362,103 +359,86 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
